--- a/revref_file.xlsx
+++ b/revref_file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\70.逆引きマニュアル作成\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D6BB72-748F-40D3-A37D-1A9277344C58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C10415-328E-453B-BC2E-D64E917D25A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="5" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14715" windowHeight="12240" activeTab="7" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="65">
   <si>
     <t>header1</t>
   </si>
@@ -346,6 +346,100 @@
   </si>
   <si>
     <t xml:space="preserve"> 「アピアランス」を「新しいウィンドウ」にします</t>
+  </si>
+  <si>
+    <t>コースを開きます</t>
+    <rPh sb="4" eb="5">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>編集モードを開始し、セクション名をクリックし、「+ 活動またはリソースを追加する」をクリックします</t>
+    <rPh sb="15" eb="16">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ダウンロードさせたいファイルをドラッグ＆ドロップします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>WordやExcelなどは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>学生がファイル名のリンクをクリックすると自動的にダウンロードされます</t>
+    </r>
+    <rPh sb="13" eb="15">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>ジドウテキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コースを開き、編集モードを開始します</t>
+    <rPh sb="4" eb="5">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>説明を表示させたいセクションの「+ 活動またはリソースを追加する」をクリックします</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「テキストおよびメディア領域」をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「テキスト」に表示させたい説明文を入力します</t>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>セツメイブン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「保存してコースに戻る」をクリックします</t>
+    <rPh sb="1" eb="3">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -930,173 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D077C58-5FEC-48A5-A5C6-05E88FEFA561}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" ht="27">
-      <c r="A7" s="1"/>
-      <c r="B7" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="40.5">
-      <c r="A9" s="1"/>
-      <c r="B9" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1"/>
-      <c r="B11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="108">
-      <c r="A13" s="1"/>
-      <c r="B13" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFABB89B-389D-4E53-86E8-1C489CE9D7CA}">
-  <dimension ref="A1:D21"/>
-  <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B16"/>
+      <selection activeCell="B7" sqref="B7:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1116,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1143,46 +1072,230 @@
       <c r="A6" s="1"/>
       <c r="B6" s="3"/>
     </row>
+    <row r="7" spans="1:4" ht="27">
+      <c r="A7" s="1"/>
+      <c r="B7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="40.5">
+      <c r="A9" s="1"/>
+      <c r="B9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="108">
+      <c r="A13" s="1"/>
+      <c r="B13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFABB89B-389D-4E53-86E8-1C489CE9D7CA}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="3"/>
+    </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
+        <v>56</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
+      <c r="B8" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" s="15"/>
+      <c r="B9" s="32" t="s">
+        <v>37</v>
+      </c>
       <c r="C9" s="17"/>
       <c r="D9" s="18"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" ht="40.5">
       <c r="A10" s="1"/>
-      <c r="B10" s="15"/>
+      <c r="B10" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="C10" s="17"/>
       <c r="D10" s="18"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="B11" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
+      <c r="B12" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
+      <c r="B13" s="16" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
+      <c r="B14" s="16" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
@@ -1204,6 +1317,9 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1296,7 +1412,7 @@
       <c r="C10" s="17"/>
       <c r="D10" s="18"/>
     </row>
-    <row r="11" spans="1:4" ht="59.25">
+    <row r="11" spans="1:4" ht="54">
       <c r="A11" s="1"/>
       <c r="B11" s="16" t="s">
         <v>45</v>
@@ -1477,7 +1593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE0A9EDB-E219-4750-9E93-E48F3540F6B4}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -1627,7 +1743,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B8" sqref="B7:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1677,7 +1793,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="20" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -1754,9 +1870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62AD47A1-F5EF-4704-9C65-E978BFF1C35C}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -1804,29 +1918,39 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="3" t="s">
-        <v>17</v>
+      <c r="B7" s="20" t="s">
+        <v>60</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
+      <c r="B8" s="19" t="s">
+        <v>61</v>
+      </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
+      <c r="B10" s="19" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
+      <c r="B11" s="19" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
@@ -1981,21 +2105,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2248,21 +2363,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2287,9 +2408,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>